--- a/data/long_bre/P19_2-Edad-long_bre.xlsx
+++ b/data/long_bre/P19_2-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,31</t>
+          <t>-15,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,52</t>
+          <t>15,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-49,73%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,21%</t>
+          <t>-54,39%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>86,69%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>50,85%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 15,31</t>
+          <t>-8,26; 16,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,61; -2,66</t>
+          <t>-26,87; -3,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 27,09</t>
+          <t>3,89; 26,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 69,7</t>
+          <t>-5,17; 19,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-73,71; -8,52</t>
+          <t>-23,73; 72,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,81; 227,3</t>
+          <t>-76,01; -16,76</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13,14; 216,53</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-28,66; 248,83</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>17,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,58</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>-10,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,54%</t>
+          <t>43,89%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-14,1%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-18,46%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 15,44</t>
+          <t>-9,93; 15,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 26,1</t>
+          <t>3,21; 31,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 3,53</t>
+          <t>-23,56; 5,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 35,56</t>
+          <t>-26,28; 7,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 73,79</t>
+          <t>-17,61; 33,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 6,19</t>
+          <t>6,42; 98,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-34,78; 10,94</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-38,15; 18,01</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-25,69%</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>-34,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-28,92%</t>
+          <t>-7,33%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-30,4%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12,47%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 4,35</t>
+          <t>-16,37; 3,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 14,92</t>
+          <t>-17,45; 11,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 3,6</t>
+          <t>-18,13; 4,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-59,38; 29,46</t>
+          <t>-13,36; 17,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 71,39</t>
+          <t>-64,14; 22,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,76; 27,74</t>
+          <t>-44,35; 48,6</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-61,92; 30,52</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-38,84; 102,91</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-23,74%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 2,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 15,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 13,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,79; 11,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,08; 97,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 115,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-8,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,42</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>-8,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>-23,55%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,5%</t>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26,34%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-29,67%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 13,5</t>
+          <t>-24,16; 4,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 23,52</t>
+          <t>-19,4; 13,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 6,34</t>
+          <t>-3,96; 12,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 33,09</t>
+          <t>-38,35; 6,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 69,25</t>
+          <t>-50,09; 15,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 11,75</t>
+          <t>-50,68; 91,09</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-21,77; 110,45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-77,03; 44,2</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,02</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>-7,51</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>58,06%</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-34,4%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>24,04%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-12,19%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>17,97%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 17,83</t>
+          <t>-12,64; 15,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 0,57</t>
+          <t>-3,07; 24,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 15,09</t>
+          <t>-19,33; 7,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 189,28</t>
+          <t>-7,93; 31,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,78; 3,87</t>
+          <t>-21,9; 39,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,84; 108,08</t>
+          <t>-6,8; 76,9</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-28,56; 15,21</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-13,22; 95,55</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>-12,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-30,04%</t>
+          <t>58,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,58%</t>
+          <t>-34,77%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-2,66%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 15,96</t>
+          <t>-1,49; 16,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 1,8</t>
+          <t>-26,29; 1,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 6,54</t>
+          <t>-16,03; 13,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 95,33</t>
+          <t>-12,77; 14,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-54,59; 9,64</t>
+          <t>-11,15; 172,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-38,33; 36,87</t>
+          <t>-59,48; 5,6</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-41,69; 88,48</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-43,51; 92,0</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-12,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,18%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 0,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 12,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 9,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,62; -0,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 28,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 20,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>-32,08%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,54%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16,68%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 14,46</t>
+          <t>-5,97; 14,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 16,13</t>
+          <t>-15,59; 0,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 10,4</t>
+          <t>-10,3; 7,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 112,07</t>
+          <t>-6,5; 10,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 78,43</t>
+          <t>-18,02; 76,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 60,78</t>
+          <t>-55,07; 4,27</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-35,23; 40,59</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-27,46; 78,68</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-7,64</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>-13,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,16%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>12,38%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 8,9</t>
+          <t>-19,06; 3,29</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 9,02</t>
+          <t>-9,56; 12,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 14,31</t>
+          <t>-11,64; 8,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 48,99</t>
+          <t>-4,4; 17,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 66,68</t>
+          <t>-29,8; 5,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 98,08</t>
+          <t>-16,85; 29,71</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-19,32; 17,77</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 39,17</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>-9,33</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,66%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-13,74%</t>
+          <t>23,51%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-30,05%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 10,07</t>
+          <t>-5,93; 10,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 7,16</t>
+          <t>-4,66; 15,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 1,1</t>
+          <t>-5,75; 9,86</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 22,38</t>
+          <t>-17,83; 0,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 13,25</t>
+          <t>-25,9; 75,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 2,21</t>
+          <t>-15,74; 77,18</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-21,61; 57,23</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-50,8; 3,69</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-6,78%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 5,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 10,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 8,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 27,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 49,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-29,93; 51,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-19,94%</t>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>36,13%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-9,42%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 10,52</t>
+          <t>-5,77; 9,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 10,07</t>
+          <t>-6,2; 8,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 2,98</t>
+          <t>-1,38; 13,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 51,67</t>
+          <t>-17,05; 7,58</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 73,97</t>
+          <t>-22,24; 54,71</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-44,5; 13,78</t>
+          <t>-28,99; 60,84</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 100,83</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-54,72; 57,94</t>
         </is>
       </c>
     </row>
@@ -1603,37 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-7,44</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-7,61%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-6,07%</t>
+          <t>-5,12%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-12,56%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 10,74</t>
+          <t>-10,06; 8,11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 8,64</t>
+          <t>-12,12; 7,51</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 7,05</t>
+          <t>-16,52; 1,45</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 22,48</t>
+          <t>-8,09; 15,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 16,97</t>
+          <t>-17,3; 16,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 14,96</t>
+          <t>-20,05; 14,44</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-25,48; 3,31</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-12,95; 34,0</t>
         </is>
       </c>
     </row>
@@ -1679,37 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>-3,91%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 8,22</t>
+          <t>-9,39; 6,68</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 14,88</t>
+          <t>-8,28; 9,35</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 16,63</t>
+          <t>-8,63; 8,7</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 50,77</t>
+          <t>-10,02; 7,81</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 70,21</t>
+          <t>-33,46; 34,02</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 84,94</t>
+          <t>-25,9; 44,41</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-30,89; 50,41</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-32,44; 40,07</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-20,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 13,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 4,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-34,98; 59,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-40,44; 100,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 24,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-11,18%</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-3,4%</t>
+          <t>8,83%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-20,96%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 7,02</t>
+          <t>-8,76; 10,86</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 16,56</t>
+          <t>-7,09; 10,41</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 10,81</t>
+          <t>-11,99; 3,28</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 15,74</t>
+          <t>-8,78; 11,94</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-27,59; 38,8</t>
+          <t>-30,18; 56,54</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 20,12</t>
+          <t>-33,36; 78,44</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-42,74; 17,38</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-36,35; 81,47</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>-10,76%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>-8,23%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-5,8%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-12,29%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 15,81</t>
+          <t>-10,36; 12,0</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 9,03</t>
+          <t>-16,02; 7,43</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 19,88</t>
+          <t>-12,92; 7,13</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 102,63</t>
+          <t>-21,06; 5,6</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 43,05</t>
+          <t>-17,4; 24,84</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 134,26</t>
+          <t>-25,99; 14,82</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-23,19; 14,7</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-32,2; 10,54</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>-11,12%</t>
+          <t>-7,73%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,17%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>35,21%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>26,08%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 5,13</t>
+          <t>-10,84; 6,51</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 1,75</t>
+          <t>-6,99; 13,62</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,24</t>
+          <t>-0,52; 17,35</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 21,02</t>
+          <t>-5,38; 17,52</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 9,92</t>
+          <t>-42,6; 41,08</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 34,1</t>
+          <t>-23,17; 66,27</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 89,83</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-22,44; 111,54</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 1,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 7,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -0,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 3,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 16,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -0,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>-9,84%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>-18,83%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>51,85%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 6,32</t>
+          <t>-12,94; 6,76</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 4,98</t>
+          <t>-8,78; 13,94</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,88</t>
+          <t>-14,47; 4,28</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 36,39</t>
+          <t>-4,25; 15,93</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 19,73</t>
+          <t>-39,92; 34,48</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 35,07</t>
+          <t>-35,17; 95,26</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-49,42; 27,78</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-26,39; 267,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-4,14</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-7,14</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-7,92%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-2,75%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-11,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-17,51; 8,55</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-14,2; 13,87</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-14,06; 9,53</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-21,83; 8,74</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-29,03; 18,84</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-24,58; 32,82</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-21,79; 17,78</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-31,72; 15,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>31,33%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-8,06%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>29,67%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>6,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 18,65</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-15,39; 8,5</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 17,19</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-14,19; 14,45</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-15,73; 117,6</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-41,89; 39,48</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-17,79; 115,09</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-43,11; 83,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>-11,91%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 3,91</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 1,82</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 6,06</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 5,43</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-16,46; 15,79</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-30,21; 9,72</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 34,0</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-28,01; 34,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-4,82</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-3,15%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-8,33%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-0,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 3,14</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 8,12</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 0,21</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 5,66</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-11,9; 6,35</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 16,92</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-15,08; 0,39</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 10,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-2,55%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>10,18%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>-2,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 5,75</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 4,27</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 6,09</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-5,39; 4,25</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 31,96</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-17,82; 16,75</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-9,22; 30,99</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-18,96; 19,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
